--- a/object_detection/z_yolov2/nets/Yolo_v2_Net.xlsx
+++ b/object_detection/z_yolov2/nets/Yolo_v2_Net.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="188">
   <si>
     <t>module name</t>
   </si>
@@ -46,181 +46,160 @@
     <t>duration</t>
   </si>
   <si>
-    <t>backbone.model_hook.conv_1.0.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_1.0.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_1.0.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_1.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_2.0.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_2.0.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_2.0.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_2.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.0.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.0.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.0.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.1.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.1.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.1.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.2.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.2.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.2.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_3.3</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.0.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.0.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.0.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.1.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.1.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.1.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.2.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.2.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_4.2.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.maxpool_4</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.0.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.0.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.0.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.1.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.1.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.1.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.2.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.2.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.2.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.3.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.3.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.3.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.4.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.4.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_5.4.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.maxpool_5</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.0.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.0.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.0.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.1.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.1.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.1.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.2.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.2.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.2.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.3.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.3.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.3.convs.2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.4.convs.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.4.convs.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.conv_6.4.convs.2</t>
+    <t>backbone.model_hook.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.maxpool</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.0.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.0.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.0.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.0.conv2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.0.bn2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.1.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.1.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.1.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.1.conv2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer1.1.bn2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.0.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.0.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.0.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.0.conv2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.0.bn2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.0.downsample.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.0.downsample.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.1.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.1.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.1.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.1.conv2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer2.1.bn2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.0.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.0.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.0.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.0.conv2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.0.bn2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.0.downsample.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.0.downsample.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.1.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.1.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.1.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.1.conv2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer3.1.bn2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.0.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.0.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.0.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.0.conv2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.0.bn2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.0.downsample.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.0.downsample.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.1.conv1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.1.bn1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.1.relu</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.1.conv2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.layer4.1.bn2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.avgpool</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.fc</t>
   </si>
   <si>
     <t>convsets_1.0.convs.0</t>
@@ -268,370 +247,337 @@
     <t>Model</t>
   </si>
   <si>
-    <t>torch.Size([5, 3, 608, 608])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 32, 608, 608])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 32, 304, 304])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 64, 304, 304])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 64, 152, 152])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 128, 152, 152])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 128, 76, 76])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 256, 76, 76])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 256, 38, 38])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 512, 38, 38])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 512, 19, 19])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 1024, 19, 19])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 64, 38, 38])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 1280, 19, 19])</t>
-  </si>
-  <si>
-    <t>(5, 3, 608, 608)</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 256, 19, 19])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 40, 19, 19])</t>
-  </si>
-  <si>
-    <t>896</t>
-  </si>
-  <si>
-    <t>64</t>
+    <t>torch.Size([5, 3, 416, 416])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 64, 208, 208])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 64, 104, 104])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 128, 52, 52])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 256, 26, 26])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 512, 13, 13])</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 64, 26, 26])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 768, 13, 13])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 1024, 13, 13])</t>
+  </si>
+  <si>
+    <t>(5, 3, 416, 416)</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 256, 13, 13])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 40, 13, 13])</t>
+  </si>
+  <si>
+    <t>9,408</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>18,496</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>73,856</t>
+    <t>36,864</t>
+  </si>
+  <si>
+    <t>73,728</t>
   </si>
   <si>
     <t>256</t>
   </si>
   <si>
-    <t>8,256</t>
-  </si>
-  <si>
-    <t>295,168</t>
+    <t>147,456</t>
+  </si>
+  <si>
+    <t>8,192</t>
+  </si>
+  <si>
+    <t>294,912</t>
   </si>
   <si>
     <t>512</t>
   </si>
   <si>
-    <t>32,896</t>
-  </si>
-  <si>
-    <t>1,180,160</t>
+    <t>589,824</t>
+  </si>
+  <si>
+    <t>32,768</t>
+  </si>
+  <si>
+    <t>1,179,648</t>
   </si>
   <si>
     <t>1,024</t>
   </si>
   <si>
-    <t>131,328</t>
-  </si>
-  <si>
-    <t>4,719,616</t>
+    <t>2,359,296</t>
+  </si>
+  <si>
+    <t>131,072</t>
+  </si>
+  <si>
+    <t>2,359,808</t>
+  </si>
+  <si>
+    <t>16,448</t>
+  </si>
+  <si>
+    <t>7,078,912</t>
   </si>
   <si>
     <t>2,048</t>
   </si>
   <si>
-    <t>524,800</t>
-  </si>
-  <si>
-    <t>9,438,208</t>
-  </si>
-  <si>
-    <t>32,832</t>
-  </si>
-  <si>
-    <t>11,797,504</t>
-  </si>
-  <si>
     <t>41,000</t>
   </si>
   <si>
-    <t>50,578,600</t>
-  </si>
-  <si>
-    <t>225.625</t>
-  </si>
-  <si>
-    <t>56.40625</t>
-  </si>
-  <si>
-    <t>112.8125</t>
-  </si>
-  <si>
-    <t>28.203125</t>
-  </si>
-  <si>
-    <t>14.1015625</t>
-  </si>
-  <si>
-    <t>7.05078125</t>
-  </si>
-  <si>
-    <t>3.525390625</t>
-  </si>
-  <si>
-    <t>1.7626953125</t>
-  </si>
-  <si>
-    <t>0.275421142578125</t>
-  </si>
-  <si>
-    <t>2,083.781280517578</t>
-  </si>
-  <si>
-    <t>638,779,392</t>
-  </si>
-  <si>
-    <t>47,316,992</t>
-  </si>
-  <si>
-    <t>8,871,936</t>
-  </si>
-  <si>
-    <t>3,406,823,424</t>
-  </si>
-  <si>
-    <t>23,658,496</t>
-  </si>
-  <si>
-    <t>4,435,968</t>
-  </si>
-  <si>
-    <t>11,829,248</t>
-  </si>
-  <si>
-    <t>378,535,936</t>
-  </si>
-  <si>
-    <t>5,914,624</t>
-  </si>
-  <si>
-    <t>2,217,984</t>
-  </si>
-  <si>
-    <t>2,957,312</t>
-  </si>
-  <si>
-    <t>1,108,992</t>
-  </si>
-  <si>
-    <t>1,478,656</t>
-  </si>
-  <si>
-    <t>554,496</t>
-  </si>
-  <si>
-    <t>739,328</t>
-  </si>
-  <si>
-    <t>6,813,646,848</t>
-  </si>
-  <si>
-    <t>94,633,984</t>
-  </si>
-  <si>
-    <t>369,664</t>
-  </si>
-  <si>
-    <t>8,517,058,560</t>
-  </si>
-  <si>
-    <t>29,573,120</t>
-  </si>
-  <si>
-    <t>62,808,686,080</t>
-  </si>
-  <si>
-    <t>1,656,094,720</t>
-  </si>
-  <si>
-    <t>118,292,480</t>
-  </si>
-  <si>
-    <t>59,146,240</t>
-  </si>
-  <si>
-    <t>8,546,631,680</t>
-  </si>
-  <si>
-    <t>8,531,845,120</t>
-  </si>
-  <si>
-    <t>14,786,560</t>
-  </si>
-  <si>
-    <t>953,733,120</t>
-  </si>
-  <si>
-    <t>7,393,280</t>
-  </si>
-  <si>
-    <t>8,524,451,840</t>
-  </si>
-  <si>
-    <t>950,036,480</t>
-  </si>
-  <si>
-    <t>3,696,640</t>
-  </si>
-  <si>
-    <t>8,520,755,200</t>
-  </si>
-  <si>
-    <t>948,188,160</t>
-  </si>
-  <si>
-    <t>1,848,320</t>
-  </si>
-  <si>
-    <t>8,518,906,880</t>
-  </si>
-  <si>
-    <t>947,264,000</t>
-  </si>
-  <si>
-    <t>924,160</t>
-  </si>
-  <si>
-    <t>17,035,965,440</t>
-  </si>
-  <si>
-    <t>237,047,040</t>
-  </si>
-  <si>
-    <t>462,080</t>
-  </si>
-  <si>
-    <t>21,294,494,720</t>
-  </si>
-  <si>
-    <t>74,005,000</t>
-  </si>
-  <si>
-    <t>157,438,121,480</t>
-  </si>
-  <si>
-    <t>22,197,760</t>
-  </si>
-  <si>
-    <t>236,586,240</t>
-  </si>
-  <si>
-    <t>236,584,960</t>
-  </si>
-  <si>
-    <t>59,516,160</t>
-  </si>
-  <si>
-    <t>118,295,040</t>
-  </si>
-  <si>
-    <t>31,050,240</t>
-  </si>
-  <si>
-    <t>59,151,360</t>
-  </si>
-  <si>
-    <t>59,311,360</t>
-  </si>
-  <si>
-    <t>29,575,680</t>
-  </si>
-  <si>
-    <t>20,689,920</t>
-  </si>
-  <si>
-    <t>29,583,360</t>
-  </si>
-  <si>
-    <t>30,231,040</t>
-  </si>
-  <si>
-    <t>14,791,680</t>
-  </si>
-  <si>
-    <t>30,996,480</t>
-  </si>
-  <si>
-    <t>14,807,040</t>
-  </si>
-  <si>
-    <t>17,413,120</t>
-  </si>
-  <si>
-    <t>7,403,520</t>
-  </si>
-  <si>
-    <t>98,088,960</t>
-  </si>
-  <si>
-    <t>7,434,240</t>
-  </si>
-  <si>
-    <t>17,889,280</t>
-  </si>
-  <si>
-    <t>3,717,120</t>
-  </si>
-  <si>
-    <t>196,157,440</t>
-  </si>
-  <si>
-    <t>15,443,200</t>
-  </si>
-  <si>
-    <t>1,850,880</t>
-  </si>
-  <si>
-    <t>245,191,680</t>
-  </si>
-  <si>
-    <t>8,213,280</t>
-  </si>
-  <si>
-    <t>3,231,404,320</t>
-  </si>
-  <si>
-    <t>288,800</t>
-  </si>
-  <si>
-    <t>2,183,154,720</t>
+    <t>23,036,712</t>
+  </si>
+  <si>
+    <t>52.8125</t>
+  </si>
+  <si>
+    <t>13.203125</t>
+  </si>
+  <si>
+    <t>6.6015625</t>
+  </si>
+  <si>
+    <t>3.30078125</t>
+  </si>
+  <si>
+    <t>1.650390625</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.8251953125</t>
+  </si>
+  <si>
+    <t>0.128936767578125</t>
+  </si>
+  <si>
+    <t>465.5390930175781</t>
+  </si>
+  <si>
+    <t>811,286,528</t>
+  </si>
+  <si>
+    <t>11,075,584</t>
+  </si>
+  <si>
+    <t>2,768,896</t>
+  </si>
+  <si>
+    <t>5,537,792</t>
+  </si>
+  <si>
+    <t>796,749,824</t>
+  </si>
+  <si>
+    <t>692,224</t>
+  </si>
+  <si>
+    <t>398,374,912</t>
+  </si>
+  <si>
+    <t>1,384,448</t>
+  </si>
+  <si>
+    <t>346,112</t>
+  </si>
+  <si>
+    <t>797,095,936</t>
+  </si>
+  <si>
+    <t>43,956,224</t>
+  </si>
+  <si>
+    <t>398,547,968</t>
+  </si>
+  <si>
+    <t>173,056</t>
+  </si>
+  <si>
+    <t>797,268,992</t>
+  </si>
+  <si>
+    <t>44,129,280</t>
+  </si>
+  <si>
+    <t>398,634,496</t>
+  </si>
+  <si>
+    <t>86,528</t>
+  </si>
+  <si>
+    <t>797,355,520</t>
+  </si>
+  <si>
+    <t>44,215,808</t>
+  </si>
+  <si>
+    <t>797,442,048</t>
+  </si>
+  <si>
+    <t>22,151,168</t>
+  </si>
+  <si>
+    <t>2,392,326,144</t>
+  </si>
+  <si>
+    <t>13,844,480</t>
+  </si>
+  <si>
+    <t>16,571,236,864</t>
+  </si>
+  <si>
+    <t>2,035,138,560</t>
+  </si>
+  <si>
+    <t>27,688,960</t>
+  </si>
+  <si>
+    <t>31,150,080</t>
+  </si>
+  <si>
+    <t>1,993,605,120</t>
+  </si>
+  <si>
+    <t>6,922,240</t>
+  </si>
+  <si>
+    <t>3,461,120</t>
+  </si>
+  <si>
+    <t>996,802,560</t>
+  </si>
+  <si>
+    <t>1,730,560</t>
+  </si>
+  <si>
+    <t>110,755,840</t>
+  </si>
+  <si>
+    <t>865,280</t>
+  </si>
+  <si>
+    <t>432,640</t>
+  </si>
+  <si>
+    <t>1,994,037,760</t>
+  </si>
+  <si>
+    <t>55,594,240</t>
+  </si>
+  <si>
+    <t>216,320</t>
+  </si>
+  <si>
+    <t>5,981,680,640</t>
+  </si>
+  <si>
+    <t>34,645,000</t>
+  </si>
+  <si>
+    <t>7,124,414,472</t>
+  </si>
+  <si>
+    <t>10,571,520</t>
+  </si>
+  <si>
+    <t>55,380,480</t>
+  </si>
+  <si>
+    <t>55,377,920</t>
+  </si>
+  <si>
+    <t>14,581,760</t>
+  </si>
+  <si>
+    <t>13,847,040</t>
+  </si>
+  <si>
+    <t>15,319,040</t>
+  </si>
+  <si>
+    <t>6,927,360</t>
+  </si>
+  <si>
+    <t>9,871,360</t>
+  </si>
+  <si>
+    <t>14,008,320</t>
+  </si>
+  <si>
+    <t>12,820,480</t>
+  </si>
+  <si>
+    <t>3,471,360</t>
+  </si>
+  <si>
+    <t>15,257,600</t>
+  </si>
+  <si>
+    <t>7,577,600</t>
+  </si>
+  <si>
+    <t>27,054,080</t>
+  </si>
+  <si>
+    <t>1,751,040</t>
+  </si>
+  <si>
+    <t>48,916,480</t>
+  </si>
+  <si>
+    <t>6,082,560</t>
+  </si>
+  <si>
+    <t>48,926,720</t>
+  </si>
+  <si>
+    <t>3,790,080</t>
+  </si>
+  <si>
+    <t>867,840</t>
+  </si>
+  <si>
+    <t>144,174,080</t>
+  </si>
+  <si>
+    <t>3,502,080</t>
+  </si>
+  <si>
+    <t>4,281,120</t>
+  </si>
+  <si>
+    <t>973,845,280</t>
+  </si>
+  <si>
+    <t>135,200</t>
+  </si>
+  <si>
+    <t>487,287,840</t>
   </si>
 </sst>
 </file>
@@ -989,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,31 +981,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K2">
-        <v>0.2184147834777832</v>
+        <v>0.06225967407226562</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1070,31 +1016,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K3">
-        <v>0.08477306365966797</v>
+        <v>0.02394008636474609</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1105,31 +1051,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
         <v>123</v>
       </c>
-      <c r="G4" t="s">
-        <v>103</v>
-      </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K4">
-        <v>0.09275197982788086</v>
+        <v>0.01495695114135742</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1140,31 +1086,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
         <v>124</v>
       </c>
-      <c r="G5" t="s">
-        <v>135</v>
-      </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K5">
-        <v>0.249333381652832</v>
+        <v>0.07679367065429688</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1175,31 +1121,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
         <v>125</v>
       </c>
-      <c r="G6" t="s">
-        <v>136</v>
-      </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K6">
-        <v>0.197472095489502</v>
+        <v>0.03030610084533691</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1210,31 +1156,31 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K7">
-        <v>0.04088854789733887</v>
+        <v>0.003990650177001953</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1245,31 +1191,31 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K8">
-        <v>0.04687380790710449</v>
+        <v>0.003988265991210938</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1280,31 +1226,31 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K9">
-        <v>0.1361501216888428</v>
+        <v>0.02692818641662598</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1315,31 +1261,31 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K10">
-        <v>0.1161925792694092</v>
+        <v>0.006382226943969727</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1350,31 +1296,31 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K11">
-        <v>0.01695489883422852</v>
+        <v>0.027923583984375</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1385,31 +1331,31 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K12">
-        <v>0.0249335765838623</v>
+        <v>0.003991127014160156</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1420,31 +1366,31 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
         <v>126</v>
       </c>
-      <c r="G13" t="s">
-        <v>140</v>
-      </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I13" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K13">
-        <v>0.03989148139953613</v>
+        <v>0.003986597061157227</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1455,31 +1401,31 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K14">
-        <v>0.01296567916870117</v>
+        <v>0.02194571495056152</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1490,31 +1436,31 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K15">
-        <v>0.01247477531433105</v>
+        <v>0.003985881805419922</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1525,31 +1471,31 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K16">
-        <v>0.1206791400909424</v>
+        <v>0.01795506477355957</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1560,31 +1506,31 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K17">
-        <v>0.01994633674621582</v>
+        <v>0.001991510391235352</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1595,31 +1541,31 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K18">
-        <v>0.02991986274719238</v>
+        <v>0.002986431121826172</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1630,31 +1576,31 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K19">
-        <v>0.06482625007629395</v>
+        <v>0.02550983428955078</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1665,31 +1611,31 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K20">
-        <v>0.08680415153503418</v>
+        <v>0.0009970664978027344</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1700,31 +1646,31 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K21">
-        <v>0.008973836898803711</v>
+        <v>0.008485794067382812</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1735,31 +1681,31 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K22">
-        <v>0.01396059989929199</v>
+        <v>0.001995086669921875</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1770,31 +1716,31 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K23">
-        <v>0.02792620658874512</v>
+        <v>0.02593827247619629</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1805,31 +1751,31 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K24">
-        <v>0.005982875823974609</v>
+        <v>0.001996278762817383</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1840,31 +1786,31 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K25">
-        <v>0.006981611251831055</v>
+        <v>0.002990961074829102</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1875,31 +1821,31 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K26">
-        <v>0.09275555610656738</v>
+        <v>0.02293825149536133</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1910,31 +1856,31 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H27" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K27">
-        <v>0.009970426559448242</v>
+        <v>0.001994132995605469</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1945,31 +1891,31 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28">
-        <v>0.0109708309173584</v>
+        <v>0.01595640182495117</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1980,31 +1926,31 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K29">
-        <v>0.03091931343078613</v>
+        <v>0.0009977817535400391</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2015,31 +1961,31 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>112</v>
-      </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I30" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K30">
-        <v>0.09973311424255371</v>
+        <v>0.0009963512420654297</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2050,31 +1996,31 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H31" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I31" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K31">
-        <v>0.004987001419067383</v>
+        <v>0.02194404602050781</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2085,31 +2031,31 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H32" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I32" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K32">
-        <v>0.005980730056762695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2120,31 +2066,31 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H33" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I33" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J33" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K33">
-        <v>0.01895809173583984</v>
+        <v>0.004995822906494141</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2155,31 +2101,31 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I34" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="J34" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K34">
-        <v>0.001985549926757812</v>
+        <v>0.0009891986846923828</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2190,31 +2136,31 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="H35" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J35" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K35">
-        <v>0.002992391586303711</v>
+        <v>0.01995062828063965</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2225,31 +2171,31 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K36">
-        <v>0.104719877243042</v>
+        <v>0.0009937286376953125</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2260,31 +2206,31 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="J37" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K37">
-        <v>0.003989219665527344</v>
+        <v>0.0009946823120117188</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2295,31 +2241,31 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="H38" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I38" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K38">
-        <v>0.004987716674804688</v>
+        <v>0.01994514465332031</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2330,31 +2276,31 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H39" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I39" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K39">
-        <v>0.02094268798828125</v>
+        <v>0.0009982585906982422</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2365,31 +2311,31 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H40" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="I40" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J40" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K40">
-        <v>0.002991676330566406</v>
+        <v>0.01499319076538086</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2400,31 +2346,31 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
         <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="I41" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K41">
-        <v>0.002992391586303711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2435,31 +2381,31 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
         <v>92</v>
       </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I42" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="J42" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K42">
-        <v>0.1057183742523193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2470,31 +2416,31 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I43" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J43" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K43">
-        <v>0.004986763000488281</v>
+        <v>0.02490067481994629</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2505,31 +2451,31 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
         <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H44" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="I44" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J44" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K44">
-        <v>0.005983114242553711</v>
+        <v>0.0009980201721191406</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2540,31 +2486,31 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G45" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I45" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K45">
-        <v>0.01496005058288574</v>
+        <v>0.003990650177001953</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2575,31 +2521,31 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="I46" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J46" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K46">
-        <v>0.09873843193054199</v>
+        <v>0.0009992122650146484</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2610,31 +2556,31 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
         <v>116</v>
       </c>
-      <c r="F47" t="s">
-        <v>128</v>
-      </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H47" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I47" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="J47" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K47">
-        <v>0.002989053726196289</v>
+        <v>0.02165985107421875</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2645,31 +2591,31 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
         <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G48" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H48" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J48" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K48">
-        <v>0.002992630004882812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2680,31 +2626,31 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H49" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="J49" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K49">
-        <v>0.01795816421508789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2715,31 +2661,31 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G50" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="I50" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="J50" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K50">
-        <v>0.001989603042602539</v>
+        <v>0.01994800567626953</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2750,31 +2696,31 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
         <v>103</v>
       </c>
       <c r="F51" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" t="s">
         <v>129</v>
       </c>
-      <c r="G51" t="s">
-        <v>103</v>
-      </c>
       <c r="H51" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="J51" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K51">
-        <v>0.001993894577026367</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2785,31 +2731,31 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.08878588676452637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2820,31 +2766,31 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="K53">
-        <v>0.001994609832763672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2855,31 +2801,31 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G54" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I54" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J54" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K54">
-        <v>0.002992153167724609</v>
+        <v>0.02493119239807129</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2890,31 +2836,31 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" t="s">
         <v>129</v>
       </c>
-      <c r="G55" t="s">
-        <v>140</v>
-      </c>
       <c r="H55" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="I55" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="J55" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K55">
-        <v>0.01795005798339844</v>
+        <v>0.0009975433349609375</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2925,31 +2871,31 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I56" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K56">
-        <v>0.0009970664978027344</v>
+        <v>0.0009965896606445312</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2960,31 +2906,31 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G57" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J57" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K57">
-        <v>0.0009973049163818359</v>
+        <v>0.02593517303466797</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2995,31 +2941,31 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H58" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="I58" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J58" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K58">
-        <v>0.112699031829834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3030,31 +2976,31 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" t="s">
         <v>116</v>
       </c>
-      <c r="F59" t="s">
-        <v>128</v>
-      </c>
       <c r="G59" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I59" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J59" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K59">
-        <v>0.001997470855712891</v>
+        <v>0.0009961128234863281</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3065,31 +3011,31 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="H60" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I60" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K60">
-        <v>0.001995325088500977</v>
+        <v>0.001996994018554688</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3100,31 +3046,31 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
         <v>118</v>
       </c>
-      <c r="F61" t="s">
-        <v>128</v>
-      </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="J61" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K61">
-        <v>0.173058032989502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3135,31 +3081,31 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G62" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I62" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K62">
-        <v>0.002025127410888672</v>
+        <v>0.0009963512420654297</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3170,31 +3116,31 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="K63">
-        <v>0.002008199691772461</v>
+        <v>0.001993656158447266</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3205,31 +3151,31 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H64" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K64">
-        <v>0.1595728397369385</v>
+        <v>0.07181000709533691</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3240,31 +3186,31 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E65" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H65" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I65" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J65" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K65">
-        <v>0.00199580192565918</v>
+        <v>0.0009953975677490234</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3275,31 +3221,31 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G66" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="I66" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J66" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K66">
-        <v>0.002991437911987305</v>
+        <v>0.002029657363891602</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3310,31 +3256,31 @@
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" t="s">
         <v>119</v>
       </c>
-      <c r="F67" t="s">
-        <v>130</v>
-      </c>
       <c r="G67" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H67" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I67" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="J67" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K67">
-        <v>0.0119774341583252</v>
+        <v>0.001962900161743164</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3345,276 +3291,31 @@
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G68" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H68" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I68" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J68" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K68">
-        <v>0.001001834869384766</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" t="s">
-        <v>173</v>
-      </c>
-      <c r="I69" t="s">
-        <v>167</v>
-      </c>
-      <c r="J69" t="s">
-        <v>167</v>
-      </c>
-      <c r="K69">
-        <v>0.0009965896606445312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F70" t="s">
-        <v>130</v>
-      </c>
-      <c r="G70" t="s">
-        <v>103</v>
-      </c>
-      <c r="H70" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" t="s">
-        <v>103</v>
-      </c>
-      <c r="J70" t="s">
-        <v>103</v>
-      </c>
-      <c r="K70">
-        <v>0.005980014801025391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" t="s">
-        <v>128</v>
-      </c>
-      <c r="G71" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" t="s">
-        <v>174</v>
-      </c>
-      <c r="I71" t="s">
-        <v>201</v>
-      </c>
-      <c r="J71" t="s">
-        <v>161</v>
-      </c>
-      <c r="K71">
-        <v>0.2154233455657959</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" t="s">
-        <v>116</v>
-      </c>
-      <c r="F72" t="s">
-        <v>128</v>
-      </c>
-      <c r="G72" t="s">
-        <v>145</v>
-      </c>
-      <c r="H72" t="s">
-        <v>164</v>
-      </c>
-      <c r="I72" t="s">
-        <v>195</v>
-      </c>
-      <c r="J72" t="s">
-        <v>161</v>
-      </c>
-      <c r="K72">
-        <v>0.003019809722900391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" t="s">
-        <v>128</v>
-      </c>
-      <c r="G73" t="s">
-        <v>103</v>
-      </c>
-      <c r="H73" t="s">
-        <v>167</v>
-      </c>
-      <c r="I73" t="s">
-        <v>161</v>
-      </c>
-      <c r="J73" t="s">
-        <v>161</v>
-      </c>
-      <c r="K73">
-        <v>0.001998424530029297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" t="s">
-        <v>131</v>
-      </c>
-      <c r="G74" t="s">
-        <v>152</v>
-      </c>
-      <c r="H74" t="s">
-        <v>175</v>
-      </c>
-      <c r="I74" t="s">
-        <v>202</v>
-      </c>
-      <c r="J74" t="s">
-        <v>204</v>
-      </c>
-      <c r="K74">
-        <v>0.004994392395019531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" t="s">
-        <v>132</v>
-      </c>
-      <c r="G75" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75" t="s">
-        <v>176</v>
-      </c>
-      <c r="I75" t="s">
-        <v>203</v>
-      </c>
-      <c r="J75" t="s">
-        <v>205</v>
-      </c>
-      <c r="K75">
-        <v>3.17171049118042</v>
+        <v>0.7400505542755127</v>
       </c>
     </row>
   </sheetData>

--- a/object_detection/z_yolov2/nets/Yolo_v2_Net.xlsx
+++ b/object_detection/z_yolov2/nets/Yolo_v2_Net.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="207">
   <si>
     <t>module name</t>
   </si>
@@ -46,160 +46,181 @@
     <t>duration</t>
   </si>
   <si>
-    <t>backbone.model_hook.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.maxpool</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.0.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.0.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.0.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.0.conv2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.0.bn2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.1.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.1.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.1.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.1.conv2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer1.1.bn2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.0.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.0.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.0.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.0.conv2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.0.bn2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.0.downsample.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.0.downsample.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.1.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.1.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.1.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.1.conv2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer2.1.bn2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.0.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.0.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.0.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.0.conv2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.0.bn2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.0.downsample.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.0.downsample.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.1.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.1.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.1.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.1.conv2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer3.1.bn2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.0.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.0.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.0.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.0.conv2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.0.bn2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.0.downsample.0</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.0.downsample.1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.1.conv1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.1.bn1</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.1.relu</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.1.conv2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.layer4.1.bn2</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.avgpool</t>
-  </si>
-  <si>
-    <t>backbone.model_hook.fc</t>
+    <t>backbone.model_hook.conv_1.0.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_1.0.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_1.0.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_1.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_2.0.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_2.0.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_2.0.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_2.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.0.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.0.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.0.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.1.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.1.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.1.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.2.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.2.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.2.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_3.3</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.0.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.0.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.0.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.1.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.1.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.1.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.2.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.2.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_4.2.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.maxpool_4</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.0.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.0.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.0.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.1.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.1.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.1.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.2.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.2.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.2.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.3.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.3.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.3.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.4.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.4.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_5.4.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.maxpool_5</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.0.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.0.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.0.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.1.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.1.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.1.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.2.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.2.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.2.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.3.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.3.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.3.convs.2</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.4.convs.0</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.4.convs.1</t>
+  </si>
+  <si>
+    <t>backbone.model_hook.conv_6.4.convs.2</t>
   </si>
   <si>
     <t>convsets_1.0.convs.0</t>
@@ -250,31 +271,43 @@
     <t>torch.Size([5, 3, 416, 416])</t>
   </si>
   <si>
+    <t>torch.Size([5, 32, 416, 416])</t>
+  </si>
+  <si>
+    <t>torch.Size([5, 32, 208, 208])</t>
+  </si>
+  <si>
     <t>torch.Size([5, 64, 208, 208])</t>
   </si>
   <si>
     <t>torch.Size([5, 64, 104, 104])</t>
   </si>
   <si>
+    <t>torch.Size([5, 128, 104, 104])</t>
+  </si>
+  <si>
     <t>torch.Size([5, 128, 52, 52])</t>
   </si>
   <si>
+    <t>torch.Size([5, 256, 52, 52])</t>
+  </si>
+  <si>
     <t>torch.Size([5, 256, 26, 26])</t>
   </si>
   <si>
+    <t>torch.Size([5, 512, 26, 26])</t>
+  </si>
+  <si>
     <t>torch.Size([5, 512, 13, 13])</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>torch.Size([5, 1024, 13, 13])</t>
   </si>
   <si>
     <t>torch.Size([5, 64, 26, 26])</t>
   </si>
   <si>
-    <t>torch.Size([5, 768, 13, 13])</t>
-  </si>
-  <si>
-    <t>torch.Size([5, 1024, 13, 13])</t>
+    <t>torch.Size([5, 1280, 13, 13])</t>
   </si>
   <si>
     <t>(5, 3, 416, 416)</t>
@@ -283,73 +316,79 @@
     <t>torch.Size([5, 256, 13, 13])</t>
   </si>
   <si>
-    <t>torch.Size([5, 40, 13, 13])</t>
-  </si>
-  <si>
-    <t>9,408</t>
+    <t>torch.Size([5, 125, 13, 13])</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>18,496</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>36,864</t>
-  </si>
-  <si>
-    <t>73,728</t>
+    <t>73,856</t>
   </si>
   <si>
     <t>256</t>
   </si>
   <si>
-    <t>147,456</t>
-  </si>
-  <si>
-    <t>8,192</t>
-  </si>
-  <si>
-    <t>294,912</t>
+    <t>8,256</t>
+  </si>
+  <si>
+    <t>295,168</t>
   </si>
   <si>
     <t>512</t>
   </si>
   <si>
-    <t>589,824</t>
-  </si>
-  <si>
-    <t>32,768</t>
-  </si>
-  <si>
-    <t>1,179,648</t>
+    <t>32,896</t>
+  </si>
+  <si>
+    <t>1,180,160</t>
   </si>
   <si>
     <t>1,024</t>
   </si>
   <si>
-    <t>2,359,296</t>
-  </si>
-  <si>
-    <t>131,072</t>
-  </si>
-  <si>
-    <t>2,359,808</t>
-  </si>
-  <si>
-    <t>16,448</t>
-  </si>
-  <si>
-    <t>7,078,912</t>
+    <t>131,328</t>
+  </si>
+  <si>
+    <t>4,719,616</t>
   </si>
   <si>
     <t>2,048</t>
   </si>
   <si>
-    <t>41,000</t>
-  </si>
-  <si>
-    <t>23,036,712</t>
+    <t>524,800</t>
+  </si>
+  <si>
+    <t>9,438,208</t>
+  </si>
+  <si>
+    <t>32,832</t>
+  </si>
+  <si>
+    <t>11,797,504</t>
+  </si>
+  <si>
+    <t>128,125</t>
+  </si>
+  <si>
+    <t>50,665,725</t>
+  </si>
+  <si>
+    <t>105.625</t>
+  </si>
+  <si>
+    <t>26.40625</t>
   </si>
   <si>
     <t>52.8125</t>
@@ -367,217 +406,235 @@
     <t>1.650390625</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>0.8251953125</t>
   </si>
   <si>
-    <t>0.128936767578125</t>
-  </si>
-  <si>
-    <t>465.5390930175781</t>
-  </si>
-  <si>
-    <t>811,286,528</t>
+    <t>0.4029273986816406</t>
+  </si>
+  <si>
+    <t>975.7837867736816</t>
+  </si>
+  <si>
+    <t>299,040,768</t>
+  </si>
+  <si>
+    <t>22,151,168</t>
+  </si>
+  <si>
+    <t>4,153,344</t>
+  </si>
+  <si>
+    <t>1,594,884,096</t>
   </si>
   <si>
     <t>11,075,584</t>
   </si>
   <si>
+    <t>2,076,672</t>
+  </si>
+  <si>
+    <t>5,537,792</t>
+  </si>
+  <si>
+    <t>177,209,344</t>
+  </si>
+  <si>
     <t>2,768,896</t>
   </si>
   <si>
-    <t>5,537,792</t>
-  </si>
-  <si>
-    <t>796,749,824</t>
+    <t>1,038,336</t>
+  </si>
+  <si>
+    <t>1,384,448</t>
+  </si>
+  <si>
+    <t>519,168</t>
   </si>
   <si>
     <t>692,224</t>
   </si>
   <si>
-    <t>398,374,912</t>
-  </si>
-  <si>
-    <t>1,384,448</t>
+    <t>259,584</t>
   </si>
   <si>
     <t>346,112</t>
   </si>
   <si>
-    <t>797,095,936</t>
-  </si>
-  <si>
-    <t>43,956,224</t>
-  </si>
-  <si>
-    <t>398,547,968</t>
+    <t>3,189,768,192</t>
+  </si>
+  <si>
+    <t>44,302,336</t>
   </si>
   <si>
     <t>173,056</t>
   </si>
   <si>
-    <t>797,268,992</t>
-  </si>
-  <si>
-    <t>44,129,280</t>
-  </si>
-  <si>
-    <t>398,634,496</t>
-  </si>
-  <si>
-    <t>86,528</t>
-  </si>
-  <si>
-    <t>797,355,520</t>
-  </si>
-  <si>
-    <t>44,215,808</t>
-  </si>
-  <si>
-    <t>797,442,048</t>
-  </si>
-  <si>
-    <t>22,151,168</t>
-  </si>
-  <si>
-    <t>2,392,326,144</t>
+    <t>3,987,210,240</t>
+  </si>
+  <si>
+    <t>43,264,000</t>
+  </si>
+  <si>
+    <t>29,432,931,840</t>
+  </si>
+  <si>
+    <t>775,290,880</t>
+  </si>
+  <si>
+    <t>55,377,920</t>
+  </si>
+  <si>
+    <t>27,688,960</t>
+  </si>
+  <si>
+    <t>4,001,054,720</t>
   </si>
   <si>
     <t>13,844,480</t>
   </si>
   <si>
-    <t>16,571,236,864</t>
-  </si>
-  <si>
-    <t>2,035,138,560</t>
-  </si>
-  <si>
-    <t>27,688,960</t>
-  </si>
-  <si>
-    <t>31,150,080</t>
-  </si>
-  <si>
-    <t>1,993,605,120</t>
+    <t>3,994,132,480</t>
   </si>
   <si>
     <t>6,922,240</t>
   </si>
   <si>
+    <t>446,484,480</t>
+  </si>
+  <si>
     <t>3,461,120</t>
   </si>
   <si>
-    <t>996,802,560</t>
+    <t>3,990,671,360</t>
+  </si>
+  <si>
+    <t>444,753,920</t>
   </si>
   <si>
     <t>1,730,560</t>
   </si>
   <si>
+    <t>3,988,940,800</t>
+  </si>
+  <si>
+    <t>443,888,640</t>
+  </si>
+  <si>
+    <t>865,280</t>
+  </si>
+  <si>
+    <t>3,988,075,520</t>
+  </si>
+  <si>
+    <t>443,456,000</t>
+  </si>
+  <si>
+    <t>432,640</t>
+  </si>
+  <si>
+    <t>7,975,285,760</t>
+  </si>
+  <si>
+    <t>110,972,160</t>
+  </si>
+  <si>
+    <t>216,320</t>
+  </si>
+  <si>
+    <t>9,968,890,880</t>
+  </si>
+  <si>
+    <t>108,265,625</t>
+  </si>
+  <si>
+    <t>73,777,339,545</t>
+  </si>
+  <si>
+    <t>10,401,280</t>
+  </si>
+  <si>
+    <t>110,757,120</t>
+  </si>
+  <si>
     <t>110,755,840</t>
   </si>
   <si>
-    <t>865,280</t>
-  </si>
-  <si>
-    <t>432,640</t>
-  </si>
-  <si>
-    <t>1,994,037,760</t>
-  </si>
-  <si>
-    <t>55,594,240</t>
-  </si>
-  <si>
-    <t>216,320</t>
-  </si>
-  <si>
-    <t>5,981,680,640</t>
-  </si>
-  <si>
-    <t>34,645,000</t>
-  </si>
-  <si>
-    <t>7,124,414,472</t>
-  </si>
-  <si>
-    <t>10,571,520</t>
+    <t>28,058,880</t>
   </si>
   <si>
     <t>55,380,480</t>
   </si>
   <si>
-    <t>55,377,920</t>
-  </si>
-  <si>
-    <t>14,581,760</t>
+    <t>15,321,600</t>
+  </si>
+  <si>
+    <t>27,694,080</t>
+  </si>
+  <si>
+    <t>27,854,080</t>
   </si>
   <si>
     <t>13,847,040</t>
   </si>
   <si>
-    <t>15,319,040</t>
+    <t>12,825,600</t>
+  </si>
+  <si>
+    <t>13,854,720</t>
+  </si>
+  <si>
+    <t>14,502,400</t>
   </si>
   <si>
     <t>6,927,360</t>
   </si>
   <si>
-    <t>9,871,360</t>
-  </si>
-  <si>
-    <t>14,008,320</t>
-  </si>
-  <si>
-    <t>12,820,480</t>
+    <t>27,064,320</t>
+  </si>
+  <si>
+    <t>6,942,720</t>
+  </si>
+  <si>
+    <t>9,548,800</t>
   </si>
   <si>
     <t>3,471,360</t>
   </si>
   <si>
-    <t>15,257,600</t>
-  </si>
-  <si>
-    <t>7,577,600</t>
-  </si>
-  <si>
-    <t>27,054,080</t>
+    <t>96,122,880</t>
+  </si>
+  <si>
+    <t>3,502,080</t>
+  </si>
+  <si>
+    <t>13,957,120</t>
   </si>
   <si>
     <t>1,751,040</t>
   </si>
   <si>
-    <t>48,916,480</t>
-  </si>
-  <si>
-    <t>6,082,560</t>
-  </si>
-  <si>
-    <t>48,926,720</t>
-  </si>
-  <si>
-    <t>3,790,080</t>
+    <t>192,225,280</t>
+  </si>
+  <si>
+    <t>7,578,880</t>
   </si>
   <si>
     <t>867,840</t>
   </si>
   <si>
-    <t>144,174,080</t>
-  </si>
-  <si>
-    <t>3,502,080</t>
-  </si>
-  <si>
-    <t>4,281,120</t>
-  </si>
-  <si>
-    <t>973,845,280</t>
-  </si>
-  <si>
-    <t>135,200</t>
-  </si>
-  <si>
-    <t>487,287,840</t>
+    <t>240,276,480</t>
+  </si>
+  <si>
+    <t>6,023,620</t>
+  </si>
+  <si>
+    <t>2,052,515,780</t>
+  </si>
+  <si>
+    <t>422,500</t>
+  </si>
+  <si>
+    <t>1,022,318,180</t>
   </si>
 </sst>
 </file>
@@ -935,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -981,31 +1038,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K2">
-        <v>0.06225967407226562</v>
+        <v>0.1076714992523193</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1016,31 +1073,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K3">
-        <v>0.02394008636474609</v>
+        <v>0.03989219665527344</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1051,31 +1108,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K4">
-        <v>0.01495695114135742</v>
+        <v>0.03989338874816895</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1086,31 +1143,31 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K5">
-        <v>0.07679367065429688</v>
+        <v>0.1037251949310303</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1121,31 +1178,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K6">
-        <v>0.03030610084533691</v>
+        <v>0.0747981071472168</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1156,31 +1213,31 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K7">
-        <v>0.003990650177001953</v>
+        <v>0.01595664024353027</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1191,31 +1248,31 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K8">
-        <v>0.003988265991210938</v>
+        <v>0.0189507007598877</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1226,31 +1283,31 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J9" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K9">
-        <v>0.02692818641662598</v>
+        <v>0.04188704490661621</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1261,31 +1318,31 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J10" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K10">
-        <v>0.006382226943969727</v>
+        <v>0.04587745666503906</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1296,31 +1353,31 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K11">
-        <v>0.027923583984375</v>
+        <v>0.006981134414672852</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1331,31 +1388,31 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K12">
-        <v>0.003991127014160156</v>
+        <v>0.01097202301025391</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1366,31 +1423,31 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K13">
-        <v>0.003986597061157227</v>
+        <v>0.01894831657409668</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1401,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K14">
-        <v>0.02194571495056152</v>
+        <v>0.003992557525634766</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1436,31 +1493,31 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K15">
-        <v>0.003985881805419922</v>
+        <v>0.003991842269897461</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1471,31 +1528,31 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K16">
-        <v>0.01795506477355957</v>
+        <v>0.05186033248901367</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1506,31 +1563,31 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K17">
-        <v>0.001991510391235352</v>
+        <v>0.007976770401000977</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1541,31 +1598,31 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K18">
-        <v>0.002986431121826172</v>
+        <v>0.0109710693359375</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1576,31 +1633,31 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K19">
-        <v>0.02550983428955078</v>
+        <v>0.02493429183959961</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1611,31 +1668,31 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K20">
-        <v>0.0009970664978027344</v>
+        <v>0.04886841773986816</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1646,31 +1703,31 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K21">
-        <v>0.008485794067382812</v>
+        <v>0.003988981246948242</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1681,31 +1738,31 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K22">
-        <v>0.001995086669921875</v>
+        <v>0.005984783172607422</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1716,31 +1773,31 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K23">
-        <v>0.02593827247619629</v>
+        <v>0.01296806335449219</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1751,31 +1808,31 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K24">
-        <v>0.001996278762817383</v>
+        <v>0.002989768981933594</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1786,31 +1843,31 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K25">
-        <v>0.002990961074829102</v>
+        <v>0.002991914749145508</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1821,31 +1878,31 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J26" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K26">
-        <v>0.02293825149536133</v>
+        <v>0.04687643051147461</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1856,31 +1913,31 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K27">
-        <v>0.001994132995605469</v>
+        <v>0.005495309829711914</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1891,31 +1948,31 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K28">
-        <v>0.01595640182495117</v>
+        <v>0.004987001419067383</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1926,31 +1983,31 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I29" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K29">
-        <v>0.0009977817535400391</v>
+        <v>0.0139622688293457</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1961,31 +2018,31 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="I30" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K30">
-        <v>0.0009963512420654297</v>
+        <v>0.04388189315795898</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1996,31 +2053,31 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J31" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K31">
-        <v>0.02194404602050781</v>
+        <v>0.001994609832763672</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2031,31 +2088,31 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J32" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.002992630004882812</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2066,31 +2123,31 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="J33" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K33">
-        <v>0.004995822906494141</v>
+        <v>0.009980678558349609</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2101,31 +2158,31 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J34" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K34">
-        <v>0.0009891986846923828</v>
+        <v>0.00198817253112793</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2136,31 +2193,31 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="I35" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J35" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K35">
-        <v>0.01995062828063965</v>
+        <v>0.0009977817535400391</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2171,31 +2228,31 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="J36" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K36">
-        <v>0.0009937286376953125</v>
+        <v>0.04388117790222168</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2206,31 +2263,31 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="I37" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="J37" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K37">
-        <v>0.0009946823120117188</v>
+        <v>0.001994848251342773</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2241,31 +2298,31 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I38" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K38">
-        <v>0.01994514465332031</v>
+        <v>0.002991914749145508</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2276,31 +2333,31 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="I39" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="J39" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K39">
-        <v>0.0009982585906982422</v>
+        <v>0.008976459503173828</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2311,31 +2368,31 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K40">
-        <v>0.01499319076538086</v>
+        <v>0.0009975433349609375</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2346,31 +2403,31 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
         <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="I41" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.0009973049163818359</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2381,31 +2438,31 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H42" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>0.04687333106994629</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2416,31 +2473,31 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K43">
-        <v>0.02490067481994629</v>
+        <v>0.001994848251342773</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2451,31 +2508,31 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
         <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K44">
-        <v>0.0009980201721191406</v>
+        <v>0.00199580192565918</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2486,31 +2543,31 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H45" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K45">
-        <v>0.003990650177001953</v>
+        <v>0.005982398986816406</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2521,31 +2578,31 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G46" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="I46" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K46">
-        <v>0.0009992122650146484</v>
+        <v>0.04988527297973633</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2556,31 +2613,31 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="I47" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J47" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K47">
-        <v>0.02165985107421875</v>
+        <v>0.0009977817535400391</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2591,31 +2648,31 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
         <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G48" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H48" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.0009977817535400391</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2626,31 +2683,31 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I49" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.007977962493896484</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2661,31 +2718,31 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="I50" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K50">
-        <v>0.01994800567626953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2696,31 +2753,31 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
         <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G51" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="I51" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K51">
-        <v>0.0009999275207519531</v>
+        <v>0.0009973049163818359</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2731,31 +2788,31 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F52" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="J52" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.04886984825134277</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2766,31 +2823,31 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="J53" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.0009973049163818359</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2801,31 +2858,31 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J54" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K54">
-        <v>0.02493119239807129</v>
+        <v>0.0009984970092773438</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2836,31 +2893,31 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="I55" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K55">
-        <v>0.0009975433349609375</v>
+        <v>0.006981372833251953</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2871,31 +2928,31 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="I56" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="J56" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K56">
-        <v>0.0009965896606445312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2906,31 +2963,31 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H57" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="I57" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="J57" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K57">
-        <v>0.02593517303466797</v>
+        <v>0.0009963512420654297</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2941,31 +2998,31 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G58" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="I58" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J58" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.0468752384185791</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2976,31 +3033,31 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I59" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="J59" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K59">
-        <v>0.0009961128234863281</v>
+        <v>0.0009977817535400391</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3011,31 +3068,31 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I60" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="J60" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K60">
-        <v>0.001996994018554688</v>
+        <v>0.001003742218017578</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3046,31 +3103,31 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G61" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H61" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="I61" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="J61" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>0.09872913360595703</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3081,31 +3138,31 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G62" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H62" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I62" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="J62" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K62">
-        <v>0.0009963512420654297</v>
+        <v>0.0009961128234863281</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3116,31 +3173,31 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="J63" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="K63">
-        <v>0.001993656158447266</v>
+        <v>0.0009968280792236328</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3151,31 +3208,31 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G64" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H64" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J64" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K64">
-        <v>0.07181000709533691</v>
+        <v>0.1027390956878662</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3186,31 +3243,31 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="H65" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="I65" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="J65" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K65">
-        <v>0.0009953975677490234</v>
+        <v>0.001980781555175781</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3221,31 +3278,31 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F66" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H66" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="I66" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J66" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K66">
-        <v>0.002029657363891602</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3256,31 +3313,31 @@
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H67" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I67" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J67" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="K67">
-        <v>0.001962900161743164</v>
+        <v>0.005982160568237305</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3291,31 +3348,276 @@
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F68" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68" t="s">
+        <v>171</v>
+      </c>
+      <c r="I68" t="s">
+        <v>201</v>
+      </c>
+      <c r="J68" t="s">
+        <v>168</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" t="s">
+        <v>174</v>
+      </c>
+      <c r="I69" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" t="s">
+        <v>168</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+      <c r="K70">
+        <v>0.002991914749145508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" t="s">
         <v>120</v>
       </c>
-      <c r="G68" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" t="s">
-        <v>161</v>
-      </c>
-      <c r="I68" t="s">
-        <v>185</v>
-      </c>
-      <c r="J68" t="s">
-        <v>187</v>
-      </c>
-      <c r="K68">
-        <v>0.7400505542755127</v>
+      <c r="F71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71" t="s">
+        <v>151</v>
+      </c>
+      <c r="H71" t="s">
+        <v>175</v>
+      </c>
+      <c r="I71" t="s">
+        <v>202</v>
+      </c>
+      <c r="J71" t="s">
+        <v>162</v>
+      </c>
+      <c r="K71">
+        <v>0.1226711273193359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" t="s">
+        <v>165</v>
+      </c>
+      <c r="I72" t="s">
+        <v>196</v>
+      </c>
+      <c r="J72" t="s">
+        <v>162</v>
+      </c>
+      <c r="K72">
+        <v>0.0009934902191162109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" t="s">
+        <v>168</v>
+      </c>
+      <c r="I73" t="s">
+        <v>162</v>
+      </c>
+      <c r="J73" t="s">
+        <v>162</v>
+      </c>
+      <c r="K73">
+        <v>0.0009968280792236328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" t="s">
+        <v>152</v>
+      </c>
+      <c r="H74" t="s">
+        <v>176</v>
+      </c>
+      <c r="I74" t="s">
+        <v>203</v>
+      </c>
+      <c r="J74" t="s">
+        <v>205</v>
+      </c>
+      <c r="K74">
+        <v>0.002990961074829102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75" t="s">
+        <v>177</v>
+      </c>
+      <c r="I75" t="s">
+        <v>204</v>
+      </c>
+      <c r="J75" t="s">
+        <v>206</v>
+      </c>
+      <c r="K75">
+        <v>1.468559503555298</v>
       </c>
     </row>
   </sheetData>
